--- a/localData/Horario_MEC.xlsx
+++ b/localData/Horario_MEC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HappierGore\Desktop\Discord Bots\UTEC\localData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9850F1-71D3-4AE4-BD61-9CCA6698EAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D45CB-A6F1-4E5D-8E88-70ACDA83136C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-60" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{C000E3B4-7912-4112-9B8B-0B23119E013D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C000E3B4-7912-4112-9B8B-0B23119E013D}"/>
   </bookViews>
   <sheets>
     <sheet name="MEC11" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="37">
   <si>
     <t>Horario</t>
   </si>
@@ -52,15 +52,6 @@
     <t>Viernes</t>
   </si>
   <si>
-    <t>7:00 a 7:30 7:30 a 8:00</t>
-  </si>
-  <si>
-    <t>8:00 a 8:30 8:30 a 9:00</t>
-  </si>
-  <si>
-    <t>9:00 a 9:30 9:30 a 10:00</t>
-  </si>
-  <si>
     <t>10:00 a 10:30 10:30 a 11:00</t>
   </si>
   <si>
@@ -82,9 +73,6 @@
     <t>16:00 a 16:30 16:30 a 17:00</t>
   </si>
   <si>
-    <t xml:space="preserve">17:00 a 17:30 17:30 a 18:00 </t>
-  </si>
-  <si>
     <t>18:00 a 18:30 18:30 a 19:00</t>
   </si>
   <si>
@@ -146,6 +134,18 @@
   </si>
   <si>
     <t>Sabado</t>
+  </si>
+  <si>
+    <t>17:00 a 17:30 17:30 a 18:00</t>
+  </si>
+  <si>
+    <t>07:00 a 07:30 07:30 a 08:00</t>
+  </si>
+  <si>
+    <t>08:00 a 08:30 08:30 a 09:00</t>
+  </si>
+  <si>
+    <t>09:00 a 09:30 09:30 a 10:00</t>
   </si>
 </sst>
 </file>
@@ -310,7 +310,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -325,9 +325,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +349,239 @@
   <dxfs count="30">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -412,101 +642,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF3F3F3F"/>
@@ -514,9 +649,7 @@
         <right style="thin">
           <color rgb="FF3F3F3F"/>
         </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
+        <top/>
         <bottom style="thin">
           <color rgb="FF3F3F3F"/>
         </bottom>
@@ -525,16 +658,115 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF3F3F3F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF3F3F3F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF3F3F3F"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF3F3F3F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
     </dxf>
@@ -600,19 +832,88 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF3F3F3F"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF3F3F3F"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -633,133 +934,11 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="medium">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
         </bottom>
       </border>
     </dxf>
@@ -787,188 +966,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF3F3F3F"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FF3F3F3F"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF3F3F3F"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF3F3F3F"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF3F3F3F"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -984,39 +981,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB7D67C9-8031-44FB-8DFB-6CA4AB57A32B}" name="Tabla3" displayName="Tabla3" ref="A1:G15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="20" headerRowBorderDxfId="28" tableBorderDxfId="29" headerRowCellStyle="Título 3" dataCellStyle="Salida">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB7D67C9-8031-44FB-8DFB-6CA4AB57A32B}" name="Tabla3" displayName="Tabla3" ref="A1:G15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" headerRowCellStyle="Título 3" dataCellStyle="Salida">
   <autoFilter ref="A1:G15" xr:uid="{DB7D67C9-8031-44FB-8DFB-6CA4AB57A32B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{89068B3D-A84A-4647-91CD-48B706653AA3}" name="Horario" dataDxfId="27" dataCellStyle="40% - Énfasis3"/>
-    <tableColumn id="2" xr3:uid="{E4678FAC-9CFF-4146-86FF-33E165427896}" name="Lunes" dataDxfId="26" dataCellStyle="Salida"/>
-    <tableColumn id="3" xr3:uid="{8EA31B03-78D1-4058-9376-2C03C5C878B2}" name="Martes" dataDxfId="25" dataCellStyle="Salida"/>
-    <tableColumn id="4" xr3:uid="{7D681D9C-0320-4FF8-AF6B-F5693562D92D}" name="Miercoles" dataDxfId="24" dataCellStyle="Salida"/>
-    <tableColumn id="5" xr3:uid="{5708B5A1-BBBD-4144-85A3-2E389FEE8DB1}" name="Jueves" dataDxfId="23" dataCellStyle="Salida"/>
-    <tableColumn id="6" xr3:uid="{ECF4692D-E381-4AEE-B750-0310D539AF37}" name="Viernes" dataDxfId="22" dataCellStyle="Salida"/>
-    <tableColumn id="7" xr3:uid="{B428364E-5D9A-41D1-8AA9-02A9F49ED296}" name="Sabado" dataDxfId="21" dataCellStyle="Salida"/>
+    <tableColumn id="1" xr3:uid="{89068B3D-A84A-4647-91CD-48B706653AA3}" name="Horario" dataDxfId="0" dataCellStyle="40% - Énfasis3"/>
+    <tableColumn id="2" xr3:uid="{E4678FAC-9CFF-4146-86FF-33E165427896}" name="Lunes" dataDxfId="25" dataCellStyle="Salida"/>
+    <tableColumn id="3" xr3:uid="{8EA31B03-78D1-4058-9376-2C03C5C878B2}" name="Martes" dataDxfId="24" dataCellStyle="Salida"/>
+    <tableColumn id="4" xr3:uid="{7D681D9C-0320-4FF8-AF6B-F5693562D92D}" name="Miercoles" dataDxfId="23" dataCellStyle="Salida"/>
+    <tableColumn id="5" xr3:uid="{5708B5A1-BBBD-4144-85A3-2E389FEE8DB1}" name="Jueves" dataDxfId="22" dataCellStyle="Salida"/>
+    <tableColumn id="6" xr3:uid="{ECF4692D-E381-4AEE-B750-0310D539AF37}" name="Viernes" dataDxfId="21" dataCellStyle="Salida"/>
+    <tableColumn id="7" xr3:uid="{B428364E-5D9A-41D1-8AA9-02A9F49ED296}" name="Sabado" dataDxfId="20" dataCellStyle="Salida"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B8F222E7-57A0-48BA-9451-5DC3AF115337}" name="Tabla4" displayName="Tabla4" ref="A1:G15" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="17" tableBorderDxfId="18" headerRowCellStyle="Título 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B8F222E7-57A0-48BA-9451-5DC3AF115337}" name="Tabla4" displayName="Tabla4" ref="A1:G15" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" headerRowCellStyle="Título 3">
   <autoFilter ref="A1:G15" xr:uid="{B8F222E7-57A0-48BA-9451-5DC3AF115337}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{FADCB7CD-ACE0-4EC3-A317-C747B2F08BA6}" name="Horario" dataDxfId="16" dataCellStyle="40% - Énfasis3"/>
-    <tableColumn id="2" xr3:uid="{470C912C-3F43-40F4-AF41-8D4E135BBEE7}" name="Lunes" dataDxfId="15" dataCellStyle="Salida"/>
-    <tableColumn id="3" xr3:uid="{D52C2DDC-0491-4640-977A-8DE3A4604AFD}" name="Martes" dataDxfId="14" dataCellStyle="Salida"/>
-    <tableColumn id="4" xr3:uid="{B94363EF-7A7A-46E8-B3AF-F9BFB6CF7047}" name="Miercoles" dataDxfId="13" dataCellStyle="Salida"/>
-    <tableColumn id="5" xr3:uid="{E88891E6-1FFD-4D15-987B-11A054E9B7A2}" name="Jueves" dataDxfId="12" dataCellStyle="Salida"/>
+    <tableColumn id="1" xr3:uid="{FADCB7CD-ACE0-4EC3-A317-C747B2F08BA6}" name="Horario" dataDxfId="1" dataCellStyle="40% - Énfasis3"/>
+    <tableColumn id="2" xr3:uid="{470C912C-3F43-40F4-AF41-8D4E135BBEE7}" name="Lunes" dataDxfId="16" dataCellStyle="Salida"/>
+    <tableColumn id="3" xr3:uid="{D52C2DDC-0491-4640-977A-8DE3A4604AFD}" name="Martes" dataDxfId="15" dataCellStyle="Salida"/>
+    <tableColumn id="4" xr3:uid="{B94363EF-7A7A-46E8-B3AF-F9BFB6CF7047}" name="Miercoles" dataDxfId="14" dataCellStyle="Salida"/>
+    <tableColumn id="5" xr3:uid="{E88891E6-1FFD-4D15-987B-11A054E9B7A2}" name="Jueves" dataDxfId="13" dataCellStyle="Salida"/>
     <tableColumn id="6" xr3:uid="{3C749285-A0D3-461D-8AF5-584B0286FF4E}" name="Viernes"/>
-    <tableColumn id="7" xr3:uid="{C9921B31-CC39-4950-AA39-E328A58B9C5F}" name="Sabado" dataDxfId="11" dataCellStyle="Salida"/>
+    <tableColumn id="7" xr3:uid="{C9921B31-CC39-4950-AA39-E328A58B9C5F}" name="Sabado" dataDxfId="12" dataCellStyle="Salida"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C1EB9D2-ADED-47DF-B61B-FF3D6E813449}" name="Tabla5" displayName="Tabla5" ref="A1:G15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="8" tableBorderDxfId="9" headerRowCellStyle="Título 3" dataCellStyle="Salida">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5C1EB9D2-ADED-47DF-B61B-FF3D6E813449}" name="Tabla5" displayName="Tabla5" ref="A1:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" headerRowCellStyle="Título 3" dataCellStyle="Salida">
   <autoFilter ref="A1:G15" xr:uid="{5C1EB9D2-ADED-47DF-B61B-FF3D6E813449}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DCED408F-CB21-467F-A0E0-D546E301EA5D}" name="Horario" dataDxfId="7" dataCellStyle="40% - Énfasis3"/>
@@ -1330,8 +1327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DAD910-27A6-41A7-970E-ECF3DC37E5C6}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1352,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1361,147 +1358,147 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>26</v>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -1509,10 +1506,10 @@
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1522,11 +1519,11 @@
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1535,7 +1532,7 @@
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1557,7 +1554,7 @@
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1578,15 +1575,15 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1603,7 +1600,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1616,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1628,12 +1625,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1644,7 +1641,7 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1655,10 +1652,10 @@
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1666,7 +1663,7 @@
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1677,155 +1674,165 @@
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="7" t="s">
-        <v>30</v>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>33</v>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>29</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1839,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E393037D-9497-4A10-B3F2-6CE93277554B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1863,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1865,12 +1872,12 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1881,7 +1888,7 @@
     </row>
     <row r="3" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1892,10 +1899,10 @@
     </row>
     <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -1903,7 +1910,7 @@
     </row>
     <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1914,21 +1921,21 @@
     </row>
     <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="8"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1936,7 +1943,7 @@
     </row>
     <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1947,9 +1954,9 @@
     </row>
     <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="9"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1958,7 +1965,7 @@
     </row>
     <row r="10" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1969,9 +1976,9 @@
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="7"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1980,7 +1987,7 @@
     </row>
     <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1991,9 +1998,9 @@
     </row>
     <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -2002,7 +2009,7 @@
     </row>
     <row r="14" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -2012,15 +2019,15 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
